--- a/test-code-generator/Evaluation/QualitativeEvaluation/TemplateExperts/UC3.3._TC1/7/UC3.3_TC1.evaluation.xlsx
+++ b/test-code-generator/Evaluation/QualitativeEvaluation/TemplateExperts/UC3.3._TC1/7/UC3.3_TC1.evaluation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="46">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -260,6 +260,9 @@
     </r>
   </si>
   <si>
+    <t>(4) Good</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Aptos Narrow"/>
@@ -430,6 +433,9 @@
       </rPr>
       <t>with the correct status "passed" or "failed"</t>
     </r>
+  </si>
+  <si>
+    <t>(2) Below average</t>
   </si>
   <si>
     <r>
@@ -779,16 +785,10 @@
     <t>Strongly agree</t>
   </si>
   <si>
-    <t>(4) Good</t>
-  </si>
-  <si>
     <t>Agree</t>
   </si>
   <si>
     <t>Neutral</t>
-  </si>
-  <si>
-    <t>(2) Below average</t>
   </si>
   <si>
     <t>Disagree</t>
@@ -4354,7 +4354,9 @@
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="10" t="s">
         <v>9</v>
@@ -4364,7 +4366,9 @@
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="10" t="s">
         <v>11</v>
@@ -4374,7 +4378,9 @@
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="C7" s="8"/>
       <c r="D7" s="10" t="s">
         <v>14</v>
@@ -4412,7 +4418,9 @@
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="10" t="s">
         <v>17</v>
@@ -4422,17 +4430,21 @@
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="10" t="s">
         <v>21</v>
@@ -4442,20 +4454,24 @@
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="78.0" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -7494,7 +7510,9 @@
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="10" t="s">
         <v>9</v>
@@ -7504,7 +7522,9 @@
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="10" t="s">
         <v>11</v>
@@ -7514,7 +7534,9 @@
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="8"/>
       <c r="D7" s="10" t="s">
         <v>14</v>
@@ -7552,7 +7574,9 @@
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="10" t="s">
         <v>17</v>
@@ -7562,17 +7586,21 @@
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="10" t="s">
         <v>21</v>
@@ -7582,20 +7610,24 @@
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="78.0" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -10705,7 +10737,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -10725,17 +10757,17 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" ht="78.0" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -13735,15 +13767,15 @@
         <v>8</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -13751,12 +13783,12 @@
         <v>13</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>43</v>
